--- a/target/test-classes/testdata/TestData.xlsx
+++ b/target/test-classes/testdata/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24800" windowHeight="10140" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="10120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>Name</t>
   </si>
@@ -94,37 +94,25 @@
     <t>01061988</t>
   </si>
   <si>
-    <t>LastNane</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>Zip</t>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LastName </t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Confirm Password</t>
+  </si>
+  <si>
+    <t>James</t>
   </si>
   <si>
     <t>Smith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Yourk </t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>Jane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LastName </t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Confirm Password</t>
-  </si>
-  <si>
-    <t>James</t>
   </si>
   <si>
     <t>310-222-2788</t>
@@ -168,8 +156,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -209,18 +197,94 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,129 +296,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,31 +357,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,151 +537,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,39 +548,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -628,10 +583,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -652,6 +605,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -660,148 +628,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1202,7 +1190,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.2321428571429" defaultRowHeight="23.2" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1212,54 +1200,28 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="4">
-        <v>90012</v>
-      </c>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="4">
-        <v>90502</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1286,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -1301,7 +1263,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>8</v>
@@ -1310,71 +1272,71 @@
         <v>9</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2">
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1409,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1423,7 +1385,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
